--- a/rhla_analysis/rhla1_6_normal_result/k7.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/k7.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006740674747970498</v>
+        <v>0.006740674747970527</v>
       </c>
       <c r="B2" t="n">
         <v>0.2988718402157856</v>
@@ -466,12 +466,12 @@
         <v>0.1697216564833673</v>
       </c>
       <c r="D2" t="n">
-        <v>44.33856422248689</v>
+        <v>44.33856422248671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002530822814805901</v>
+        <v>0.002530822814805893</v>
       </c>
       <c r="B3" t="n">
         <v>0.2956570580463105</v>
@@ -480,26 +480,26 @@
         <v>0.1636116768499661</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8225038578948</v>
+        <v>116.8225038578952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.009775898977387893</v>
+        <v>0.009775898977387886</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3361186338362202</v>
+        <v>0.3361186338362201</v>
       </c>
       <c r="C4" t="n">
         <v>0.1642905634758995</v>
       </c>
       <c r="D4" t="n">
-        <v>34.38237594452215</v>
+        <v>34.38237594452217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.005792303141522531</v>
+        <v>0.005792303141522548</v>
       </c>
       <c r="B5" t="n">
         <v>0.3109718460393227</v>
@@ -508,12 +508,12 @@
         <v>0.1578411405295316</v>
       </c>
       <c r="D5" t="n">
-        <v>53.68708067264284</v>
+        <v>53.68708067264267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002418221417913255</v>
+        <v>0.002418221417913243</v>
       </c>
       <c r="B6" t="n">
         <v>0.2986226696726644</v>
@@ -522,12 +522,12 @@
         <v>0.1785471826205024</v>
       </c>
       <c r="D6" t="n">
-        <v>123.4885554567429</v>
+        <v>123.4885554567435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01009103035389445</v>
+        <v>0.01009103035389447</v>
       </c>
       <c r="B7" t="n">
         <v>0.3306204547219914</v>
@@ -536,12 +536,12 @@
         <v>0.1622539035980991</v>
       </c>
       <c r="D7" t="n">
-        <v>32.76379548243004</v>
+        <v>32.76379548242998</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01396027844924804</v>
+        <v>0.01396027844924797</v>
       </c>
       <c r="B8" t="n">
         <v>0.2979261303236175</v>
@@ -550,26 +550,26 @@
         <v>0.1737949762389681</v>
       </c>
       <c r="D8" t="n">
-        <v>21.34098767490308</v>
+        <v>21.34098767490319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.008080859471468006</v>
+        <v>0.008080859471467951</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3048967147052417</v>
+        <v>0.3048967147052418</v>
       </c>
       <c r="C9" t="n">
         <v>0.1564833672776646</v>
       </c>
       <c r="D9" t="n">
-        <v>37.73072849265287</v>
+        <v>37.73072849265314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01369883967320608</v>
+        <v>0.01369883967320613</v>
       </c>
       <c r="B10" t="n">
         <v>0.2975883777312305</v>
@@ -578,12 +578,12 @@
         <v>0.1737949762389681</v>
       </c>
       <c r="D10" t="n">
-        <v>21.72361928677006</v>
+        <v>21.72361928676998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.004644013189408124</v>
+        <v>0.004644013189408123</v>
       </c>
       <c r="B11" t="n">
         <v>0.287458362208345</v>
@@ -592,7 +592,7 @@
         <v>0.1737949762389681</v>
       </c>
       <c r="D11" t="n">
-        <v>61.89869633961599</v>
+        <v>61.89869633961601</v>
       </c>
     </row>
   </sheetData>
